--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/75.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/75.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1211398862204296</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.31933938030754</v>
+        <v>-1.317076305766631</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.166634332631304</v>
+        <v>-0.1690550923660306</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1285810992379506</v>
+        <v>-0.1306397670461319</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1300021676501453</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.388071144187067</v>
+        <v>-1.387783514713158</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2343659635685586</v>
+        <v>-0.2369371082566488</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1331393693777676</v>
+        <v>-0.1341614030414036</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.144788521513148</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491562272966857</v>
+        <v>-1.491944805566676</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2810115799769097</v>
+        <v>-0.2828746013409092</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1378407242304936</v>
+        <v>-0.1390087627032205</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1590348057270363</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.643464216296908</v>
+        <v>-1.645776932472907</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2917283329641795</v>
+        <v>-0.292328412729543</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1482508671186726</v>
+        <v>-0.1490305327992179</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1661460356332248</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.738227177589246</v>
+        <v>-1.740277085108882</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2906916988196344</v>
+        <v>-0.2916378099825432</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1663043617627586</v>
+        <v>-0.165803565267577</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1620433308389779</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.578446814760652</v>
+        <v>-1.58057994502147</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2235105060126524</v>
+        <v>-0.2245281595320157</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1735315998127567</v>
+        <v>-0.1716904791701208</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1488885572431994</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.420440410362513</v>
+        <v>-1.420488591949513</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1466623347957639</v>
+        <v>-0.1488246660183997</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1528894399034895</v>
+        <v>-0.1522178177816715</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1311960153285887</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.151003135666222</v>
+        <v>-1.150709665999949</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.005094611853165581</v>
+        <v>-0.007835122119801209</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1305069026698592</v>
+        <v>-0.1286964430371324</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1135746943044367</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7803538672600483</v>
+        <v>-0.7786908724845033</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08099420373108403</v>
+        <v>0.07805366687599391</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1176336586523172</v>
+        <v>-0.1156713540181359</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.09958575742665647</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.405644205113058</v>
+        <v>-0.401853920269059</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1244934165035269</v>
+        <v>0.1191803015007101</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07332411918941999</v>
+        <v>-0.07222616302505665</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.08939280579878815</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06349260726536146</v>
+        <v>0.06843048990881467</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1375491665324325</v>
+        <v>0.1325003202340702</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02770244841291652</v>
+        <v>0.02826456692791637</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.07832377235244298</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6041776162906708</v>
+        <v>0.6095038717263057</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05720418013781769</v>
+        <v>0.05169103854654644</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1784582539916033</v>
+        <v>0.1806497861760573</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.06090618233094457</v>
       </c>
       <c r="E14" t="n">
-        <v>1.168245295491883</v>
+        <v>1.174311795309609</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09038332108359723</v>
+        <v>-0.09457949929686882</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3072972776776596</v>
+        <v>0.3097151173162044</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.03434265179132995</v>
       </c>
       <c r="E15" t="n">
-        <v>1.816445325835527</v>
+        <v>1.821682518337617</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2595050715978245</v>
+        <v>-0.2616279815220058</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4890645047072472</v>
+        <v>0.4909932282353376</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.001030553130316212</v>
       </c>
       <c r="E16" t="n">
-        <v>2.443549121313632</v>
+        <v>2.450604073688902</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.496365753289761</v>
+        <v>-0.4985164041276695</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6066202767467611</v>
+        <v>0.6092863245607604</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.04080954625969258</v>
       </c>
       <c r="E17" t="n">
-        <v>3.054601148080286</v>
+        <v>3.062226979259102</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6305470929404522</v>
+        <v>-0.6339767459059967</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7932772048328018</v>
+        <v>0.7955344391813467</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.08137536342645764</v>
       </c>
       <c r="E18" t="n">
-        <v>3.653910008051761</v>
+        <v>3.664362492334576</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.753316696712601</v>
+        <v>-0.7574559330503272</v>
       </c>
       <c r="G18" t="n">
-        <v>0.935774978409309</v>
+        <v>0.9367794914958543</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.1222987724853976</v>
       </c>
       <c r="E19" t="n">
-        <v>4.187807253502436</v>
+        <v>4.198158994466978</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9116851930372858</v>
+        <v>-0.9154594173522848</v>
       </c>
       <c r="G19" t="n">
-        <v>1.088149977320814</v>
+        <v>1.089480081131631</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.1635265815996373</v>
       </c>
       <c r="E20" t="n">
-        <v>4.730856080386927</v>
+        <v>4.741628315201651</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.126500608604592</v>
+        <v>-1.131003396916954</v>
       </c>
       <c r="G20" t="n">
-        <v>1.24722805701768</v>
+        <v>1.248527499818589</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.2039347778194292</v>
       </c>
       <c r="E21" t="n">
-        <v>5.189744815215258</v>
+        <v>5.202193185238345</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.282921400776004</v>
+        <v>-1.288052009767457</v>
       </c>
       <c r="G21" t="n">
-        <v>1.423185752693542</v>
+        <v>1.424815166362996</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.241492474605306</v>
       </c>
       <c r="E22" t="n">
-        <v>5.593405770956877</v>
+        <v>5.605297862657328</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.489953299970676</v>
+        <v>-1.494872201988947</v>
       </c>
       <c r="G22" t="n">
-        <v>1.53890040409042</v>
+        <v>1.539855275541874</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.2736316402267536</v>
       </c>
       <c r="E23" t="n">
-        <v>5.864707527065258</v>
+        <v>5.877779337623164</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.669441391930355</v>
+        <v>-1.675569213767899</v>
       </c>
       <c r="G23" t="n">
-        <v>1.699679439813195</v>
+        <v>1.701451938195558</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.2983683156835721</v>
       </c>
       <c r="E24" t="n">
-        <v>6.169352401425722</v>
+        <v>6.181740909477083</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.842414019284354</v>
+        <v>-1.847465055654853</v>
       </c>
       <c r="G24" t="n">
-        <v>1.813758837348255</v>
+        <v>1.813979304609982</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.3154411573614693</v>
       </c>
       <c r="E25" t="n">
-        <v>6.381355764369938</v>
+        <v>6.392495931303571</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.977567020939545</v>
+        <v>-1.982664778848953</v>
       </c>
       <c r="G25" t="n">
-        <v>1.916795891171773</v>
+        <v>1.915816198902773</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.3252243422359516</v>
       </c>
       <c r="E26" t="n">
-        <v>6.481450821290275</v>
+        <v>6.49142148970309</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.084607526628334</v>
+        <v>-2.088477384093288</v>
       </c>
       <c r="G26" t="n">
-        <v>1.980392665915574</v>
+        <v>1.979856828266211</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.3284166311399657</v>
       </c>
       <c r="E27" t="n">
-        <v>6.534673954348169</v>
+        <v>6.544643162712894</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.173203244784674</v>
+        <v>-2.176292706545037</v>
       </c>
       <c r="G27" t="n">
-        <v>2.062664915790188</v>
+        <v>2.061644342174643</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.3254844577365812</v>
       </c>
       <c r="E28" t="n">
-        <v>6.645205435022321</v>
+        <v>6.654332195638592</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.232912641486431</v>
+        <v>-2.234960358933931</v>
       </c>
       <c r="G28" t="n">
-        <v>2.092331632949362</v>
+        <v>2.091915519243453</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.3169779955329791</v>
       </c>
       <c r="E29" t="n">
-        <v>6.581989732830247</v>
+        <v>6.590947127867972</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.293099473913915</v>
+        <v>-2.295031117538187</v>
       </c>
       <c r="G29" t="n">
-        <v>2.138486673199168</v>
+        <v>2.13696384304035</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.3041200215371122</v>
       </c>
       <c r="E30" t="n">
-        <v>6.547887389570893</v>
+        <v>6.558750147367253</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.328464758771905</v>
+        <v>-2.329661998206451</v>
       </c>
       <c r="G30" t="n">
-        <v>2.122972202185172</v>
+        <v>2.121247885389809</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.2874672583177397</v>
       </c>
       <c r="E31" t="n">
-        <v>6.458910598862826</v>
+        <v>6.469196637663278</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.310418564368274</v>
+        <v>-2.310891619949728</v>
       </c>
       <c r="G31" t="n">
-        <v>2.105930520868086</v>
+        <v>2.103032325407632</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.2672439613346921</v>
       </c>
       <c r="E32" t="n">
-        <v>6.284046479207055</v>
+        <v>6.293059356072234</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.315949226536636</v>
+        <v>-2.3168464260885</v>
       </c>
       <c r="G32" t="n">
-        <v>2.04292068545683</v>
+        <v>2.040879538225739</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.243471303219392</v>
       </c>
       <c r="E33" t="n">
-        <v>6.099613204363468</v>
+        <v>6.110673068652101</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.339241373730903</v>
+        <v>-2.338102536219994</v>
       </c>
       <c r="G33" t="n">
-        <v>1.976860809583666</v>
+        <v>1.975911778324575</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.2160633758809771</v>
       </c>
       <c r="E34" t="n">
-        <v>5.860715755584714</v>
+        <v>5.870638242410529</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.381777684787391</v>
+        <v>-2.382975654245981</v>
       </c>
       <c r="G34" t="n">
-        <v>1.893619087776688</v>
+        <v>1.891864109971416</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.1853754251969876</v>
       </c>
       <c r="E35" t="n">
-        <v>5.635766146218411</v>
+        <v>5.645814197180044</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.369416917649758</v>
+        <v>-2.370300246744758</v>
       </c>
       <c r="G35" t="n">
-        <v>1.824859582983434</v>
+        <v>1.823217028881162</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.1520604621545854</v>
       </c>
       <c r="E36" t="n">
-        <v>5.446038736997189</v>
+        <v>5.455469187616369</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.329667108374769</v>
+        <v>-2.331807538876041</v>
       </c>
       <c r="G36" t="n">
-        <v>1.737376421472367</v>
+        <v>1.734992162939913</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.116502528825715</v>
       </c>
       <c r="E37" t="n">
-        <v>5.083993531990741</v>
+        <v>5.092644316929374</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.269703663305194</v>
+        <v>-2.270930833725603</v>
       </c>
       <c r="G37" t="n">
-        <v>1.649999843471935</v>
+        <v>1.648558776006209</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.07884089473262737</v>
       </c>
       <c r="E38" t="n">
-        <v>4.808536479015633</v>
+        <v>4.819222570992993</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.16415094662104</v>
+        <v>-2.166789983545358</v>
       </c>
       <c r="G38" t="n">
-        <v>1.549833244195144</v>
+        <v>1.550246437804871</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.03954672732481128</v>
       </c>
       <c r="E39" t="n">
-        <v>4.515088713464348</v>
+        <v>4.525739764287527</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.146302588733727</v>
+        <v>-2.149170853208317</v>
       </c>
       <c r="G39" t="n">
-        <v>1.437618328072174</v>
+        <v>1.438579039715992</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.0007121336379155279</v>
       </c>
       <c r="E40" t="n">
-        <v>4.246739174595784</v>
+        <v>4.256607639642236</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.117368815716189</v>
+        <v>-2.120094725501916</v>
       </c>
       <c r="G40" t="n">
-        <v>1.382549694227371</v>
+        <v>1.381387495947008</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.04116857573786902</v>
       </c>
       <c r="E41" t="n">
-        <v>3.95289135586759</v>
+        <v>3.96086175839586</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.027626959808486</v>
+        <v>-2.030391560868622</v>
       </c>
       <c r="G41" t="n">
-        <v>1.262295753315858</v>
+        <v>1.261283939988858</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.08098459463665883</v>
       </c>
       <c r="E42" t="n">
-        <v>3.698583099489294</v>
+        <v>3.70530808099602</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.932965471858466</v>
+        <v>-1.935393531833647</v>
       </c>
       <c r="G42" t="n">
-        <v>1.157381077647431</v>
+        <v>1.156477307879159</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.1193713947374454</v>
       </c>
       <c r="E43" t="n">
-        <v>3.427516411123549</v>
+        <v>3.43516706311991</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.865379845730302</v>
+        <v>-1.868237889868256</v>
       </c>
       <c r="G43" t="n">
-        <v>1.064346813294729</v>
+        <v>1.063838716559093</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.1553140232093328</v>
       </c>
       <c r="E44" t="n">
-        <v>3.158925964319985</v>
+        <v>3.167242398245801</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.825289115226086</v>
+        <v>-1.827668263590222</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9301610934997651</v>
+        <v>0.9305100449934923</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.1880907626355346</v>
       </c>
       <c r="E45" t="n">
-        <v>2.901280038005872</v>
+        <v>2.909292781928779</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.742614622102426</v>
+        <v>-1.743754919661426</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8100268765317065</v>
+        <v>0.8093362737847066</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.2173284122438055</v>
       </c>
       <c r="E46" t="n">
-        <v>2.652920017549939</v>
+        <v>2.659767643096301</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.694657882508439</v>
+        <v>-1.694871049529712</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7687892782520812</v>
+        <v>0.7687513170017175</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.2428615413947792</v>
       </c>
       <c r="E47" t="n">
-        <v>2.352767711165201</v>
+        <v>2.360046050898381</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.647561111239997</v>
+        <v>-1.647978684993997</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6622904504050189</v>
+        <v>0.6616436491007462</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.2645909559008543</v>
       </c>
       <c r="E48" t="n">
-        <v>2.161559813179798</v>
+        <v>2.168089148242342</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.613730336925552</v>
+        <v>-1.613975625004824</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6000661208666719</v>
+        <v>0.5994193195623994</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2825924934568735</v>
       </c>
       <c r="E49" t="n">
-        <v>1.964053267730215</v>
+        <v>1.970928634190304</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.56522023910511</v>
+        <v>-1.564776384485474</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5392083963414155</v>
+        <v>0.5382929461884158</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2970162340170753</v>
       </c>
       <c r="E50" t="n">
-        <v>1.852235484687972</v>
+        <v>1.857931132290607</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.492293757060403</v>
+        <v>-1.491557892822585</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4778338147919775</v>
+        <v>0.4770045074763413</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3083660877025963</v>
       </c>
       <c r="E51" t="n">
-        <v>1.675906936797019</v>
+        <v>1.681491620744745</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.435376702332509</v>
+        <v>-1.433361835967055</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4195005134159022</v>
+        <v>0.4191866030763569</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.317494727371963</v>
       </c>
       <c r="E52" t="n">
-        <v>1.557567118932688</v>
+        <v>1.562948856195777</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.395732016520065</v>
+        <v>-1.39320175317852</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3388532970664693</v>
+        <v>0.3382897185033786</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3250237353221944</v>
       </c>
       <c r="E53" t="n">
-        <v>1.381461958399644</v>
+        <v>1.385173400646734</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.357940131734984</v>
+        <v>-1.355906284744348</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2718473100303964</v>
+        <v>0.2718268693571237</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3316676026163012</v>
       </c>
       <c r="E54" t="n">
-        <v>1.328628658182022</v>
+        <v>1.334074637561111</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.33919895444008</v>
+        <v>-1.336928579658717</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2205821014624102</v>
+        <v>0.2188475643304106</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3380304468254015</v>
       </c>
       <c r="E55" t="n">
-        <v>1.206521916243146</v>
+        <v>1.210757515754872</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.30278973519709</v>
+        <v>-1.301145721046727</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1635132017330619</v>
+        <v>0.1645177148196071</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3442652613747291</v>
       </c>
       <c r="E56" t="n">
-        <v>1.176439085378063</v>
+        <v>1.180899532295789</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.250433870705195</v>
+        <v>-1.24795178895065</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1028146224497145</v>
+        <v>0.1047535663144413</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3504873029901007</v>
       </c>
       <c r="E57" t="n">
-        <v>1.085591973065541</v>
+        <v>1.090604318161631</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.24160495989947</v>
+        <v>-1.240120090991016</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0594876953519989</v>
+        <v>0.06174930984481647</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3566181424307262</v>
       </c>
       <c r="E58" t="n">
-        <v>1.031456309950829</v>
+        <v>1.037124216639736</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.204188307473753</v>
+        <v>-1.202500491880662</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01773862832043491</v>
+        <v>-0.01532224872998102</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3631197138026027</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9227790903521307</v>
+        <v>0.928163747711402</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.120366946574684</v>
+        <v>-1.118254256987139</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09445539520914159</v>
+        <v>-0.09171780503868777</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3698955283271204</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8975246385236829</v>
+        <v>0.9053081548963172</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.101307478795962</v>
+        <v>-1.099689745511235</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.121539287295498</v>
+        <v>-0.1182424987062261</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3768697928978514</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7650924364859003</v>
+        <v>0.7724466987198074</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.071791146590152</v>
+        <v>-1.069587934020971</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1504496995435811</v>
+        <v>-0.1466229134973094</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3844792006628643</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7254740315390928</v>
+        <v>0.7326545480501818</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.066381668413335</v>
+        <v>-1.064309860172336</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2253691472323792</v>
+        <v>-0.2224797120604708</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3932790546711966</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6341743043183901</v>
+        <v>0.6418322565552061</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.101262217305144</v>
+        <v>-1.099308672959508</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2408222962265568</v>
+        <v>-0.2372437183557396</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4033960257847075</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5433155116211417</v>
+        <v>0.5537986569138662</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.087730491598602</v>
+        <v>-1.085401714893603</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2917794346473613</v>
+        <v>-0.2871029006121807</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4143390555257747</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4581830275364373</v>
+        <v>0.4696736060118887</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.055111557199611</v>
+        <v>-1.053143412373066</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3246188363080798</v>
+        <v>-0.3192516995258994</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4255809421551675</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4096656294755412</v>
+        <v>0.4206028497245383</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.070960379226425</v>
+        <v>-1.069183500699789</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3532459992265267</v>
+        <v>-0.3481475112930735</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4367674423501962</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3806369533320945</v>
+        <v>0.3934050738870911</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.089666515367147</v>
+        <v>-1.087542145394875</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3872344587347902</v>
+        <v>-0.3805678791517011</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4471732688454995</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3013490417552976</v>
+        <v>0.314311348706385</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.104658289164598</v>
+        <v>-1.103211381506507</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3972051271476058</v>
+        <v>-0.3915781018052436</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4558474320358305</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1965409495975075</v>
+        <v>0.2106420940595038</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.145868146530496</v>
+        <v>-1.144945396137041</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4209440490576903</v>
+        <v>-0.4143256510616011</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4616359757465083</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1331821626925246</v>
+        <v>0.1474468325407025</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.194105215357937</v>
+        <v>-1.193080261598119</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4374805537353222</v>
+        <v>-0.4315804993999601</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4639014733657049</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08306309187590166</v>
+        <v>0.09541655877308015</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.279795437813369</v>
+        <v>-1.280564883157278</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4978564623905787</v>
+        <v>-0.4927200132067619</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4614622500187546</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.004005415977347692</v>
+        <v>0.009751157135194069</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.31586884599545</v>
+        <v>-1.316118514218995</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4916848391103076</v>
+        <v>-0.4867907579095817</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4527939390736763</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.01732543471070775</v>
+        <v>-0.003815609725529561</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.306090903930634</v>
+        <v>-1.306450075760998</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5415995031942034</v>
+        <v>-0.5367302428110228</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4368559769653657</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01284645908792051</v>
+        <v>0.02577664498100795</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346163383833715</v>
+        <v>-1.346611618597624</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5263157197785711</v>
+        <v>-0.5228203646489357</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4135204763540704</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01818877505255544</v>
+        <v>0.0318285443178245</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.396316035756428</v>
+        <v>-1.397399391439883</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4772595639721297</v>
+        <v>-0.4731407683076763</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3830587742846274</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07028767108045055</v>
+        <v>0.08255207504408361</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342622767213261</v>
+        <v>-1.343427253711352</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4877573097457633</v>
+        <v>-0.4835071097531281</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3460484066339749</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1836093036563292</v>
+        <v>0.1958240659848714</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.340876549696534</v>
+        <v>-1.341885442927352</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4332975159548688</v>
+        <v>-0.4294546693795971</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3035268911248539</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2687140468273064</v>
+        <v>0.2791037490422126</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.307066216055361</v>
+        <v>-1.308101390151816</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4344874551489594</v>
+        <v>-0.4314855962740511</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2573006232724263</v>
       </c>
       <c r="E79" t="n">
-        <v>0.361279635742827</v>
+        <v>0.3704793987636427</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.322779253609721</v>
+        <v>-1.320821329119812</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4025503632084225</v>
+        <v>-0.3996813687097869</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2089849946400584</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4644334934136174</v>
+        <v>0.4718373972826154</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.338133119333717</v>
+        <v>-1.33805865688108</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3442798439002563</v>
+        <v>-0.342238696669166</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1595733671213445</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5638525480678634</v>
+        <v>0.569329188456862</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286326232924003</v>
+        <v>-1.28654524013764</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2926627637423611</v>
+        <v>-0.2910435704095433</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1100684800974753</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7002414804320086</v>
+        <v>0.7037893972929168</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.221583320428839</v>
+        <v>-1.220253216618021</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2594802507802791</v>
+        <v>-0.2579691010061886</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.06183039968975331</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8560300717800577</v>
+        <v>0.8583968097354208</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.165479512487581</v>
+        <v>-1.165184582773218</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2160817813261089</v>
+        <v>-0.2148568009778365</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.0160648398692447</v>
       </c>
       <c r="E84" t="n">
-        <v>1.025583996529194</v>
+        <v>1.026931620917103</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.074566698010969</v>
+        <v>-1.073814773244151</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1656546403623043</v>
+        <v>-0.1661890179635769</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.02628753184760309</v>
       </c>
       <c r="E85" t="n">
-        <v>1.120643347583987</v>
+        <v>1.119602333295169</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.003966072575079</v>
+        <v>-1.001904484670716</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.131165384358859</v>
+        <v>-0.1316033987861316</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.06564230082225904</v>
       </c>
       <c r="E86" t="n">
-        <v>1.286285803497579</v>
+        <v>1.283393448229488</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9274799932847361</v>
+        <v>-0.9255395893719184</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.0461862053237</v>
+        <v>-0.04704909374542704</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1021357098786405</v>
       </c>
       <c r="E87" t="n">
-        <v>1.383925059529007</v>
+        <v>1.382043057539825</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8270593456401267</v>
+        <v>-0.8252342855264908</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01729623374888958</v>
+        <v>-0.01802917789052574</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1350383586697708</v>
       </c>
       <c r="E88" t="n">
-        <v>1.471196514066893</v>
+        <v>1.468882337842802</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6990759101353429</v>
+        <v>-0.6983736270036158</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03406825808927845</v>
+        <v>0.03293234067455148</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1630695373739172</v>
       </c>
       <c r="E89" t="n">
-        <v>1.568764227741866</v>
+        <v>1.566239804592685</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5671649452660147</v>
+        <v>-0.5656581756361969</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07933850919599357</v>
+        <v>0.07883479260463007</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1845114336753333</v>
       </c>
       <c r="E90" t="n">
-        <v>1.629535809429759</v>
+        <v>1.62555279823776</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4385960304767765</v>
+        <v>-0.4381361153281402</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09270962961253543</v>
+        <v>0.09145544830244486</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1975033846531518</v>
       </c>
       <c r="E91" t="n">
-        <v>1.673829288363656</v>
+        <v>1.668632977208112</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.278942691832092</v>
+        <v>-0.277120551814638</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1070531420576225</v>
+        <v>0.1053959874744411</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2003846049175986</v>
       </c>
       <c r="E92" t="n">
-        <v>1.703767574467739</v>
+        <v>1.698261733116923</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1193419149186804</v>
+        <v>-0.1191141474164986</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1033913414456235</v>
+        <v>0.1036906513042598</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1920279029280122</v>
       </c>
       <c r="E93" t="n">
-        <v>1.69992910803674</v>
+        <v>1.694081615432651</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03923974842727706</v>
+        <v>0.0382381554369137</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09919954337662459</v>
+        <v>0.09915428188580643</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1731965190479816</v>
       </c>
       <c r="E94" t="n">
-        <v>1.648557315958118</v>
+        <v>1.642204646714574</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1497522484762474</v>
+        <v>0.1471489827301572</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06031700266763504</v>
+        <v>0.06036810435081684</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1483434083023768</v>
       </c>
       <c r="E95" t="n">
-        <v>1.558641714327596</v>
+        <v>1.551275771708962</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2346204638564973</v>
+        <v>0.2315222418075891</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01143605263210271</v>
+        <v>0.01164921965337538</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1226319985833191</v>
       </c>
       <c r="E96" t="n">
-        <v>1.43552315906172</v>
+        <v>1.428433165532268</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3140952615889305</v>
+        <v>0.3105823858822042</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02887587515788647</v>
+        <v>-0.02778667928206858</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.09915559757130628</v>
       </c>
       <c r="E97" t="n">
-        <v>1.281454504364762</v>
+        <v>1.273923576311855</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3636230129287354</v>
+        <v>0.3610533282887361</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04940561136415368</v>
+        <v>-0.04825509346851763</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.07868172358745809</v>
       </c>
       <c r="E98" t="n">
-        <v>1.148318559147161</v>
+        <v>1.14233966221489</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3828007446028212</v>
+        <v>0.3806179727069127</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08671130013496185</v>
+        <v>-0.08519869031278043</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.06202177511921825</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9943623281532024</v>
+        <v>0.9899237819568399</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3777066368136407</v>
+        <v>0.376023201364823</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1270290681173147</v>
+        <v>-0.1256902040179514</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.04682555690438406</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8857508107185952</v>
+        <v>0.8827781528055051</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3467652976711036</v>
+        <v>0.3459622712211038</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1414251422936744</v>
+        <v>-0.1397723678547658</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.0331505104923767</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7451686202373602</v>
+        <v>0.743637029789997</v>
       </c>
       <c r="F101" t="n">
         <v>0.3477289294111033</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1339146549140401</v>
+        <v>-0.1326969748062222</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.01630787941734809</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6318353072767543</v>
+        <v>0.6294685693213913</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3052867914564784</v>
+        <v>0.3051174258779329</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1947256579003874</v>
+        <v>-0.1947387983332056</v>
       </c>
     </row>
   </sheetData>
